--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r102_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r102_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5464" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -823,10 +835,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -870,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -916,28 +928,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1025,10 +1037,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1072,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1118,28 +1130,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1256,10 +1268,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1303,28 +1315,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1349,28 +1361,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1429,10 +1441,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1476,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1522,28 +1534,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1602,10 +1614,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1649,28 +1661,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1695,28 +1707,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1775,10 +1787,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1822,28 +1834,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1868,28 +1880,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2006,10 +2018,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2053,28 +2065,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2099,28 +2111,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2208,10 +2220,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2255,28 +2267,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2301,28 +2313,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2381,10 +2393,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2428,28 +2440,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2474,28 +2486,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2554,10 +2566,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2601,28 +2613,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2647,28 +2659,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2727,10 +2739,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2774,28 +2786,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2820,28 +2832,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2929,10 +2941,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2976,28 +2988,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3022,28 +3034,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3102,10 +3114,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3149,28 +3161,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3195,28 +3207,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3275,10 +3287,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3322,28 +3334,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3368,28 +3380,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3477,10 +3489,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3524,28 +3536,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3570,28 +3582,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3679,10 +3691,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3726,28 +3738,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3772,28 +3784,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3852,10 +3864,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3899,28 +3911,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3945,28 +3957,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4112,10 +4124,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4159,28 +4171,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4205,28 +4217,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4285,10 +4297,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4332,28 +4344,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4378,28 +4390,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4458,10 +4470,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4505,28 +4517,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4551,28 +4563,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4660,10 +4672,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4707,28 +4719,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4753,28 +4765,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4862,10 +4874,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4909,28 +4921,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4955,28 +4967,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5035,10 +5047,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5082,28 +5094,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5128,28 +5140,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5208,10 +5220,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5255,28 +5267,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5301,28 +5313,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5381,10 +5393,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5428,28 +5440,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5474,28 +5486,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5641,10 +5653,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5688,28 +5700,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5734,28 +5746,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5814,10 +5826,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5861,28 +5873,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5907,28 +5919,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5987,10 +5999,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6034,28 +6046,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6080,28 +6092,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6189,10 +6201,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6236,28 +6248,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6282,28 +6294,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6362,10 +6374,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6409,28 +6421,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6455,28 +6467,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6593,10 +6605,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6640,28 +6652,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6686,28 +6698,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6766,10 +6778,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6813,28 +6825,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6859,28 +6871,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6939,10 +6951,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6986,28 +6998,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7032,28 +7044,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7112,10 +7124,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7159,28 +7171,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7205,28 +7217,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7285,10 +7297,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7332,28 +7344,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7378,28 +7390,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7458,10 +7470,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7505,28 +7517,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7551,28 +7563,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7631,10 +7643,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7678,28 +7690,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7724,28 +7736,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7804,10 +7816,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7851,28 +7863,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7897,28 +7909,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7977,10 +7989,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8024,28 +8036,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8070,28 +8082,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8150,10 +8162,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8197,28 +8209,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8243,28 +8255,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8323,10 +8335,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8370,28 +8382,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8416,28 +8428,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8496,10 +8508,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8543,28 +8555,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8589,28 +8601,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8669,10 +8681,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8716,28 +8728,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="2">
+      <c r="A298" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="2">
+      <c r="C298" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8762,28 +8774,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="2">
+      <c r="C300" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="2">
+      <c r="D300" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="2">
+      <c r="I300" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8842,10 +8854,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8889,28 +8901,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8935,28 +8947,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9015,10 +9027,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="2" t="s">
+      <c r="J308" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9062,28 +9074,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="2">
+      <c r="A310" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="2">
+      <c r="C310" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9108,28 +9120,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="2">
+      <c r="C312" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="2">
+      <c r="D312" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="2">
+      <c r="I312" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9188,10 +9200,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="2" t="s">
+      <c r="J314" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9235,28 +9247,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="2">
+      <c r="A316" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="2">
+      <c r="C316" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9281,28 +9293,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="2">
+      <c r="C318" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="2">
+      <c r="D318" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="2">
+      <c r="I318" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9361,10 +9373,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="2" t="s">
+      <c r="J320" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9408,28 +9420,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="2">
+      <c r="A322" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="2">
+      <c r="C322" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9454,28 +9466,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="2">
+      <c r="C324" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="2">
+      <c r="D324" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="2">
+      <c r="I324" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9534,10 +9546,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="2" t="s">
+      <c r="J326" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
@@ -9581,28 +9593,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="2">
+      <c r="A328" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C328" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D328" t="s" s="2">
+      <c r="C328" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9627,28 +9639,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C330" t="s" s="2">
+      <c r="C330" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D330" t="s" s="2">
+      <c r="D330" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I330" t="s" s="2">
+      <c r="I330" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9707,10 +9719,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="2" t="s">
+      <c r="J332" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9754,28 +9766,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="2">
+      <c r="A334" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="2">
+      <c r="C334" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9800,28 +9812,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="2">
+      <c r="C336" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="2">
+      <c r="D336" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="2">
+      <c r="I336" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9880,10 +9892,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="2" t="s">
+      <c r="J338" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9927,28 +9939,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
+      <c r="A340" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="2">
+      <c r="C340" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9973,28 +9985,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="2">
+      <c r="C342" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="2">
+      <c r="D342" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="2">
+      <c r="I342" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10053,10 +10065,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="2" t="s">
+      <c r="J344" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10100,28 +10112,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="2">
+      <c r="A346" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="2">
+      <c r="C346" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10146,28 +10158,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="2">
+      <c r="C348" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="2">
+      <c r="D348" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="2">
+      <c r="I348" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10226,10 +10238,10 @@
       <c r="I350">
         <f>((C350-C349)^2+(D350- D349)^2)^.5</f>
       </c>
-      <c r="J350" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K350" s="2" t="s">
+      <c r="J350" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K350" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L350" t="n">
@@ -10273,28 +10285,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="s" s="2">
+      <c r="A352" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B352" t="s" s="2">
+      <c r="B352" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C352" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D352" t="s" s="2">
+      <c r="C352" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E352" t="s" s="2">
+      <c r="E352" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F352" t="s" s="2">
+      <c r="F352" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G352" t="s" s="2">
+      <c r="G352" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H352" t="s" s="2">
+      <c r="H352" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10319,28 +10331,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C354" t="s" s="2">
+      <c r="C354" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D354" t="s" s="2">
+      <c r="D354" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I354" t="s" s="2">
+      <c r="I354" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10399,10 +10411,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="2" t="s">
+      <c r="J356" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">
@@ -10446,28 +10458,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="s" s="2">
+      <c r="A358" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B358" t="s" s="2">
+      <c r="B358" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C358" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D358" t="s" s="2">
+      <c r="C358" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E358" t="s" s="2">
+      <c r="E358" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F358" t="s" s="2">
+      <c r="F358" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G358" t="s" s="2">
+      <c r="G358" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H358" t="s" s="2">
+      <c r="H358" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10492,28 +10504,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C360" t="s" s="2">
+      <c r="C360" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D360" t="s" s="2">
+      <c r="D360" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I360" t="s" s="2">
+      <c r="I360" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10572,10 +10584,10 @@
       <c r="I362">
         <f>((C362-C361)^2+(D362- D361)^2)^.5</f>
       </c>
-      <c r="J362" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K362" s="2" t="s">
+      <c r="J362" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K362" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L362" t="n">
@@ -10619,28 +10631,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="s" s="2">
+      <c r="A364" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B364" t="s" s="2">
+      <c r="B364" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C364" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D364" t="s" s="2">
+      <c r="C364" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D364" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E364" t="s" s="2">
+      <c r="E364" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F364" t="s" s="2">
+      <c r="F364" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G364" t="s" s="2">
+      <c r="G364" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H364" t="s" s="2">
+      <c r="H364" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10665,28 +10677,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="B366" t="s" s="2">
+      <c r="B366" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C366" t="s" s="2">
+      <c r="C366" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D366" t="s" s="2">
+      <c r="D366" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E366" t="s" s="2">
+      <c r="E366" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F366" t="s" s="2">
+      <c r="F366" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G366" t="s" s="2">
+      <c r="G366" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H366" t="s" s="2">
+      <c r="H366" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I366" t="s" s="2">
+      <c r="I366" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10745,10 +10757,10 @@
       <c r="I368">
         <f>((C368-C367)^2+(D368- D367)^2)^.5</f>
       </c>
-      <c r="J368" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K368" s="2" t="s">
+      <c r="J368" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K368" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L368" t="n">
@@ -10792,28 +10804,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="s" s="2">
+      <c r="A370" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B370" t="s" s="2">
+      <c r="B370" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C370" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D370" t="s" s="2">
+      <c r="C370" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D370" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E370" t="s" s="2">
+      <c r="E370" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F370" t="s" s="2">
+      <c r="F370" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G370" t="s" s="2">
+      <c r="G370" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H370" t="s" s="2">
+      <c r="H370" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10838,28 +10850,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="B372" t="s" s="2">
+      <c r="B372" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C372" t="s" s="2">
+      <c r="C372" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D372" t="s" s="2">
+      <c r="D372" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E372" t="s" s="2">
+      <c r="E372" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F372" t="s" s="2">
+      <c r="F372" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G372" t="s" s="2">
+      <c r="G372" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H372" t="s" s="2">
+      <c r="H372" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I372" t="s" s="2">
+      <c r="I372" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10918,10 +10930,10 @@
       <c r="I374">
         <f>((C374-C373)^2+(D374- D373)^2)^.5</f>
       </c>
-      <c r="J374" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K374" s="2" t="s">
+      <c r="J374" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K374" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L374" t="n">
@@ -10965,28 +10977,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="s" s="2">
+      <c r="A376" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B376" t="s" s="2">
+      <c r="B376" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C376" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D376" t="s" s="2">
+      <c r="C376" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D376" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E376" t="s" s="2">
+      <c r="E376" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F376" t="s" s="2">
+      <c r="F376" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G376" t="s" s="2">
+      <c r="G376" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H376" t="s" s="2">
+      <c r="H376" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11011,28 +11023,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="B378" t="s" s="2">
+      <c r="B378" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C378" t="s" s="2">
+      <c r="C378" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D378" t="s" s="2">
+      <c r="D378" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E378" t="s" s="2">
+      <c r="E378" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F378" t="s" s="2">
+      <c r="F378" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G378" t="s" s="2">
+      <c r="G378" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H378" t="s" s="2">
+      <c r="H378" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I378" t="s" s="2">
+      <c r="I378" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11091,10 +11103,10 @@
       <c r="I380">
         <f>((C380-C379)^2+(D380- D379)^2)^.5</f>
       </c>
-      <c r="J380" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K380" s="2" t="s">
+      <c r="J380" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K380" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L380" t="n">
@@ -11138,28 +11150,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="2">
+      <c r="A382" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B382" t="s" s="2">
+      <c r="B382" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C382" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D382" t="s" s="2">
+      <c r="C382" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E382" t="s" s="2">
+      <c r="E382" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F382" t="s" s="2">
+      <c r="F382" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G382" t="s" s="2">
+      <c r="G382" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H382" t="s" s="2">
+      <c r="H382" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11184,28 +11196,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="B384" t="s" s="2">
+      <c r="B384" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C384" t="s" s="2">
+      <c r="C384" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D384" t="s" s="2">
+      <c r="D384" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E384" t="s" s="2">
+      <c r="E384" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F384" t="s" s="2">
+      <c r="F384" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G384" t="s" s="2">
+      <c r="G384" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H384" t="s" s="2">
+      <c r="H384" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I384" t="s" s="2">
+      <c r="I384" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11264,10 +11276,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="2" t="s">
+      <c r="J386" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
@@ -11311,28 +11323,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="s" s="2">
+      <c r="A388" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B388" t="s" s="2">
+      <c r="B388" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C388" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s" s="2">
+      <c r="C388" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E388" t="s" s="2">
+      <c r="E388" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F388" t="s" s="2">
+      <c r="F388" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G388" t="s" s="2">
+      <c r="G388" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H388" t="s" s="2">
+      <c r="H388" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11357,28 +11369,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="2">
+      <c r="B390" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C390" t="s" s="2">
+      <c r="C390" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D390" t="s" s="2">
+      <c r="D390" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E390" t="s" s="2">
+      <c r="E390" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F390" t="s" s="2">
+      <c r="F390" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G390" t="s" s="2">
+      <c r="G390" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H390" t="s" s="2">
+      <c r="H390" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I390" t="s" s="2">
+      <c r="I390" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11437,10 +11449,10 @@
       <c r="I392">
         <f>((C392-C391)^2+(D392- D391)^2)^.5</f>
       </c>
-      <c r="J392" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K392" s="2" t="s">
+      <c r="J392" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K392" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L392" t="n">
@@ -11484,28 +11496,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="2">
+      <c r="A394" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B394" t="s" s="2">
+      <c r="B394" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C394" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s" s="2">
+      <c r="C394" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E394" t="s" s="2">
+      <c r="E394" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F394" t="s" s="2">
+      <c r="F394" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G394" t="s" s="2">
+      <c r="G394" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H394" t="s" s="2">
+      <c r="H394" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11530,28 +11542,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C396" t="s" s="2">
+      <c r="C396" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D396" t="s" s="2">
+      <c r="D396" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I396" t="s" s="2">
+      <c r="I396" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11610,10 +11622,10 @@
       <c r="I398">
         <f>((C398-C397)^2+(D398- D397)^2)^.5</f>
       </c>
-      <c r="J398" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K398" s="2" t="s">
+      <c r="J398" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K398" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L398" t="n">
@@ -11657,28 +11669,28 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="s" s="2">
+      <c r="A400" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B400" t="s" s="2">
+      <c r="B400" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C400" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D400" t="s" s="2">
+      <c r="C400" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D400" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E400" t="s" s="2">
+      <c r="E400" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F400" t="s" s="2">
+      <c r="F400" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G400" t="s" s="2">
+      <c r="G400" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H400" t="s" s="2">
+      <c r="H400" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11703,28 +11715,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="B402" t="s" s="2">
+      <c r="B402" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C402" t="s" s="2">
+      <c r="C402" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D402" t="s" s="2">
+      <c r="D402" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E402" t="s" s="2">
+      <c r="E402" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F402" t="s" s="2">
+      <c r="F402" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G402" t="s" s="2">
+      <c r="G402" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H402" t="s" s="2">
+      <c r="H402" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I402" t="s" s="2">
+      <c r="I402" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11783,10 +11795,10 @@
       <c r="I404">
         <f>((C404-C403)^2+(D404- D403)^2)^.5</f>
       </c>
-      <c r="J404" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K404" s="2" t="s">
+      <c r="J404" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K404" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L404" t="n">
@@ -11830,28 +11842,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="s" s="2">
+      <c r="A406" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B406" t="s" s="2">
+      <c r="B406" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C406" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D406" t="s" s="2">
+      <c r="C406" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D406" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E406" t="s" s="2">
+      <c r="E406" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F406" t="s" s="2">
+      <c r="F406" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G406" t="s" s="2">
+      <c r="G406" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H406" t="s" s="2">
+      <c r="H406" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11876,28 +11888,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="B408" t="s" s="2">
+      <c r="B408" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C408" t="s" s="2">
+      <c r="C408" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D408" t="s" s="2">
+      <c r="D408" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E408" t="s" s="2">
+      <c r="E408" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F408" t="s" s="2">
+      <c r="F408" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G408" t="s" s="2">
+      <c r="G408" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H408" t="s" s="2">
+      <c r="H408" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I408" t="s" s="2">
+      <c r="I408" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11956,10 +11968,10 @@
       <c r="I410">
         <f>((C410-C409)^2+(D410- D409)^2)^.5</f>
       </c>
-      <c r="J410" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K410" s="2" t="s">
+      <c r="J410" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K410" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L410" t="n">
@@ -12003,28 +12015,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="s" s="2">
+      <c r="A412" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B412" t="s" s="2">
+      <c r="B412" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C412" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D412" t="s" s="2">
+      <c r="C412" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D412" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E412" t="s" s="2">
+      <c r="E412" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F412" t="s" s="2">
+      <c r="F412" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G412" t="s" s="2">
+      <c r="G412" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H412" t="s" s="2">
+      <c r="H412" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12049,28 +12061,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="B414" t="s" s="2">
+      <c r="B414" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C414" t="s" s="2">
+      <c r="C414" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D414" t="s" s="2">
+      <c r="D414" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E414" t="s" s="2">
+      <c r="E414" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F414" t="s" s="2">
+      <c r="F414" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G414" t="s" s="2">
+      <c r="G414" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H414" t="s" s="2">
+      <c r="H414" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I414" t="s" s="2">
+      <c r="I414" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12129,10 +12141,10 @@
       <c r="I416">
         <f>((C416-C415)^2+(D416- D415)^2)^.5</f>
       </c>
-      <c r="J416" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K416" s="2" t="s">
+      <c r="J416" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K416" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L416" t="n">
@@ -12176,28 +12188,28 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="s" s="2">
+      <c r="A418" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B418" t="s" s="2">
+      <c r="B418" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C418" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D418" t="s" s="2">
+      <c r="C418" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D418" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E418" t="s" s="2">
+      <c r="E418" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F418" t="s" s="2">
+      <c r="F418" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G418" t="s" s="2">
+      <c r="G418" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H418" t="s" s="2">
+      <c r="H418" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12222,28 +12234,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="B420" t="s" s="2">
+      <c r="B420" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C420" t="s" s="2">
+      <c r="C420" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D420" t="s" s="2">
+      <c r="D420" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E420" t="s" s="2">
+      <c r="E420" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F420" t="s" s="2">
+      <c r="F420" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G420" t="s" s="2">
+      <c r="G420" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H420" t="s" s="2">
+      <c r="H420" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I420" t="s" s="2">
+      <c r="I420" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12302,10 +12314,10 @@
       <c r="I422">
         <f>((C422-C421)^2+(D422- D421)^2)^.5</f>
       </c>
-      <c r="J422" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K422" s="2" t="s">
+      <c r="J422" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K422" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L422" t="n">
@@ -12349,28 +12361,28 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="s" s="2">
+      <c r="A424" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B424" t="s" s="2">
+      <c r="B424" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C424" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D424" t="s" s="2">
+      <c r="C424" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D424" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E424" t="s" s="2">
+      <c r="E424" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F424" t="s" s="2">
+      <c r="F424" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G424" t="s" s="2">
+      <c r="G424" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H424" t="s" s="2">
+      <c r="H424" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12395,28 +12407,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="B426" t="s" s="2">
+      <c r="B426" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C426" t="s" s="2">
+      <c r="C426" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D426" t="s" s="2">
+      <c r="D426" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E426" t="s" s="2">
+      <c r="E426" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F426" t="s" s="2">
+      <c r="F426" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G426" t="s" s="2">
+      <c r="G426" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H426" t="s" s="2">
+      <c r="H426" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I426" t="s" s="2">
+      <c r="I426" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12475,10 +12487,10 @@
       <c r="I428">
         <f>((C428-C427)^2+(D428- D427)^2)^.5</f>
       </c>
-      <c r="J428" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K428" s="2" t="s">
+      <c r="J428" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K428" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L428" t="n">
@@ -12522,28 +12534,28 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="s" s="2">
+      <c r="A430" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B430" t="s" s="2">
+      <c r="B430" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C430" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D430" t="s" s="2">
+      <c r="C430" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D430" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E430" t="s" s="2">
+      <c r="E430" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F430" t="s" s="2">
+      <c r="F430" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G430" t="s" s="2">
+      <c r="G430" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H430" t="s" s="2">
+      <c r="H430" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12568,28 +12580,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="B432" t="s" s="2">
+      <c r="B432" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C432" t="s" s="2">
+      <c r="C432" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D432" t="s" s="2">
+      <c r="D432" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E432" t="s" s="2">
+      <c r="E432" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F432" t="s" s="2">
+      <c r="F432" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G432" t="s" s="2">
+      <c r="G432" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H432" t="s" s="2">
+      <c r="H432" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I432" t="s" s="2">
+      <c r="I432" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12648,10 +12660,10 @@
       <c r="I434">
         <f>((C434-C433)^2+(D434- D433)^2)^.5</f>
       </c>
-      <c r="J434" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K434" s="2" t="s">
+      <c r="J434" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K434" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L434" t="n">
@@ -12695,28 +12707,28 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="s" s="2">
+      <c r="A436" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B436" t="s" s="2">
+      <c r="B436" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C436" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D436" t="s" s="2">
+      <c r="C436" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D436" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E436" t="s" s="2">
+      <c r="E436" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F436" t="s" s="2">
+      <c r="F436" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G436" t="s" s="2">
+      <c r="G436" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H436" t="s" s="2">
+      <c r="H436" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12741,28 +12753,28 @@
       </c>
     </row>
     <row r="438">
-      <c r="B438" t="s" s="2">
+      <c r="B438" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C438" t="s" s="2">
+      <c r="C438" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D438" t="s" s="2">
+      <c r="D438" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E438" t="s" s="2">
+      <c r="E438" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F438" t="s" s="2">
+      <c r="F438" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G438" t="s" s="2">
+      <c r="G438" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H438" t="s" s="2">
+      <c r="H438" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I438" t="s" s="2">
+      <c r="I438" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12821,10 +12833,10 @@
       <c r="I440">
         <f>((C440-C439)^2+(D440- D439)^2)^.5</f>
       </c>
-      <c r="J440" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K440" s="2" t="s">
+      <c r="J440" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K440" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L440" t="n">
@@ -12868,28 +12880,28 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="s" s="2">
+      <c r="A442" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B442" t="s" s="2">
+      <c r="B442" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C442" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D442" t="s" s="2">
+      <c r="C442" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D442" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E442" t="s" s="2">
+      <c r="E442" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F442" t="s" s="2">
+      <c r="F442" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G442" t="s" s="2">
+      <c r="G442" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H442" t="s" s="2">
+      <c r="H442" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12914,28 +12926,28 @@
       </c>
     </row>
     <row r="444">
-      <c r="B444" t="s" s="2">
+      <c r="B444" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C444" t="s" s="2">
+      <c r="C444" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D444" t="s" s="2">
+      <c r="D444" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E444" t="s" s="2">
+      <c r="E444" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F444" t="s" s="2">
+      <c r="F444" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G444" t="s" s="2">
+      <c r="G444" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H444" t="s" s="2">
+      <c r="H444" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I444" t="s" s="2">
+      <c r="I444" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12994,10 +13006,10 @@
       <c r="I446">
         <f>((C446-C445)^2+(D446- D445)^2)^.5</f>
       </c>
-      <c r="J446" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K446" s="2" t="s">
+      <c r="J446" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K446" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L446" t="n">
@@ -13041,28 +13053,28 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="s" s="2">
+      <c r="A448" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B448" t="s" s="2">
+      <c r="B448" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C448" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D448" t="s" s="2">
+      <c r="C448" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D448" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E448" t="s" s="2">
+      <c r="E448" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F448" t="s" s="2">
+      <c r="F448" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G448" t="s" s="2">
+      <c r="G448" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H448" t="s" s="2">
+      <c r="H448" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13087,28 +13099,28 @@
       </c>
     </row>
     <row r="450">
-      <c r="B450" t="s" s="2">
+      <c r="B450" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C450" t="s" s="2">
+      <c r="C450" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D450" t="s" s="2">
+      <c r="D450" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E450" t="s" s="2">
+      <c r="E450" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F450" t="s" s="2">
+      <c r="F450" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G450" t="s" s="2">
+      <c r="G450" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H450" t="s" s="2">
+      <c r="H450" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I450" t="s" s="2">
+      <c r="I450" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13167,10 +13179,10 @@
       <c r="I452">
         <f>((C452-C451)^2+(D452- D451)^2)^.5</f>
       </c>
-      <c r="J452" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K452" s="2" t="s">
+      <c r="J452" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K452" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L452" t="n">
@@ -13214,28 +13226,28 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="s" s="2">
+      <c r="A454" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B454" t="s" s="2">
+      <c r="B454" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C454" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D454" t="s" s="2">
+      <c r="C454" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D454" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E454" t="s" s="2">
+      <c r="E454" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F454" t="s" s="2">
+      <c r="F454" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G454" t="s" s="2">
+      <c r="G454" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H454" t="s" s="2">
+      <c r="H454" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13260,28 +13272,28 @@
       </c>
     </row>
     <row r="456">
-      <c r="B456" t="s" s="2">
+      <c r="B456" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C456" t="s" s="2">
+      <c r="C456" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D456" t="s" s="2">
+      <c r="D456" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E456" t="s" s="2">
+      <c r="E456" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F456" t="s" s="2">
+      <c r="F456" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G456" t="s" s="2">
+      <c r="G456" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H456" t="s" s="2">
+      <c r="H456" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I456" t="s" s="2">
+      <c r="I456" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13340,10 +13352,10 @@
       <c r="I458">
         <f>((C458-C457)^2+(D458- D457)^2)^.5</f>
       </c>
-      <c r="J458" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K458" s="2" t="s">
+      <c r="J458" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K458" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L458" t="n">
@@ -13387,28 +13399,28 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="s" s="2">
+      <c r="A460" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B460" t="s" s="2">
+      <c r="B460" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C460" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D460" t="s" s="2">
+      <c r="C460" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D460" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E460" t="s" s="2">
+      <c r="E460" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F460" t="s" s="2">
+      <c r="F460" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G460" t="s" s="2">
+      <c r="G460" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H460" t="s" s="2">
+      <c r="H460" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13433,28 +13445,28 @@
       </c>
     </row>
     <row r="462">
-      <c r="B462" t="s" s="2">
+      <c r="B462" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C462" t="s" s="2">
+      <c r="C462" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D462" t="s" s="2">
+      <c r="D462" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E462" t="s" s="2">
+      <c r="E462" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F462" t="s" s="2">
+      <c r="F462" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G462" t="s" s="2">
+      <c r="G462" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H462" t="s" s="2">
+      <c r="H462" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I462" t="s" s="2">
+      <c r="I462" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13513,10 +13525,10 @@
       <c r="I464">
         <f>((C464-C463)^2+(D464- D463)^2)^.5</f>
       </c>
-      <c r="J464" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K464" s="2" t="s">
+      <c r="J464" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K464" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L464" t="n">
@@ -13560,28 +13572,28 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="s" s="2">
+      <c r="A466" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B466" t="s" s="2">
+      <c r="B466" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C466" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D466" t="s" s="2">
+      <c r="C466" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D466" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E466" t="s" s="2">
+      <c r="E466" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F466" t="s" s="2">
+      <c r="F466" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G466" t="s" s="2">
+      <c r="G466" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H466" t="s" s="2">
+      <c r="H466" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13606,28 +13618,28 @@
       </c>
     </row>
     <row r="468">
-      <c r="B468" t="s" s="2">
+      <c r="B468" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C468" t="s" s="2">
+      <c r="C468" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D468" t="s" s="2">
+      <c r="D468" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E468" t="s" s="2">
+      <c r="E468" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F468" t="s" s="2">
+      <c r="F468" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G468" t="s" s="2">
+      <c r="G468" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H468" t="s" s="2">
+      <c r="H468" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I468" t="s" s="2">
+      <c r="I468" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13686,10 +13698,10 @@
       <c r="I470">
         <f>((C470-C469)^2+(D470- D469)^2)^.5</f>
       </c>
-      <c r="J470" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K470" s="2" t="s">
+      <c r="J470" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K470" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L470" t="n">
@@ -13733,28 +13745,28 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="s" s="2">
+      <c r="A472" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B472" t="s" s="2">
+      <c r="B472" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C472" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D472" t="s" s="2">
+      <c r="C472" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D472" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E472" t="s" s="2">
+      <c r="E472" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F472" t="s" s="2">
+      <c r="F472" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G472" t="s" s="2">
+      <c r="G472" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H472" t="s" s="2">
+      <c r="H472" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13779,28 +13791,28 @@
       </c>
     </row>
     <row r="474">
-      <c r="B474" t="s" s="2">
+      <c r="B474" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C474" t="s" s="2">
+      <c r="C474" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D474" t="s" s="2">
+      <c r="D474" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E474" t="s" s="2">
+      <c r="E474" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F474" t="s" s="2">
+      <c r="F474" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G474" t="s" s="2">
+      <c r="G474" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H474" t="s" s="2">
+      <c r="H474" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I474" t="s" s="2">
+      <c r="I474" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13859,10 +13871,10 @@
       <c r="I476">
         <f>((C476-C475)^2+(D476- D475)^2)^.5</f>
       </c>
-      <c r="J476" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K476" s="2" t="s">
+      <c r="J476" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K476" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L476" t="n">
